--- a/data/gpr_settings.xlsx
+++ b/data/gpr_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphael/Documents/GitHub/GeoPressureTemplate/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphael/Library/CloudStorage/Box-Box/Siberian-rubythroat-China/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DCE820-43FD-1146-846B-4573CEF9C622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B657AD53-9160-FA40-850F-52CEAB04AEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6780" yWindow="2320" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tracks" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>mass</t>
   </si>
@@ -114,12 +114,6 @@
     <t>thr_dur</t>
   </si>
   <si>
-    <t>18LX</t>
-  </si>
-  <si>
-    <t>Great Reed Warbler</t>
-  </si>
-  <si>
     <t>thr_prob_percentile</t>
   </si>
   <si>
@@ -138,20 +132,29 @@
     <t>thr_as</t>
   </si>
   <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>ringNo</t>
-  </si>
-  <si>
-    <t>Acrocephalus arundinaceus</t>
+    <t>5D6</t>
+  </si>
+  <si>
+    <t>5D7</t>
+  </si>
+  <si>
+    <t>5D8</t>
+  </si>
+  <si>
+    <t>5E5</t>
+  </si>
+  <si>
+    <t>5E6</t>
+  </si>
+  <si>
+    <t>5E7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -309,6 +312,11 @@
       <color rgb="FFAD0000"/>
       <name val="Var(--bs-font-monospace)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -491,7 +499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -606,6 +614,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -652,13 +673,21 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="22" fillId="0" borderId="10" xfId="42" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -705,10 +734,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -796,13 +822,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}" name="Table1" displayName="Table1" ref="A1:AI2" totalsRowShown="0">
-  <autoFilter ref="A1:AI2" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}"/>
-  <tableColumns count="35">
-    <tableColumn id="3" xr3:uid="{0E08F938-60A9-C640-A060-C64653A1D0F0}" name="gdl_id" dataDxfId="14" dataCellStyle="Normal_Feuil1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}" name="Table1" displayName="Table1" ref="A1:AG7" totalsRowShown="0">
+  <autoFilter ref="A1:AG7" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}"/>
+  <tableColumns count="33">
+    <tableColumn id="3" xr3:uid="{0E08F938-60A9-C640-A060-C64653A1D0F0}" name="gdl_id" dataDxfId="13" dataCellStyle="Normal_Feuil1"/>
     <tableColumn id="38" xr3:uid="{5F80A124-B607-6D47-A8B2-B6EBC16D0EC2}" name="crop_start"/>
     <tableColumn id="39" xr3:uid="{C4B8ED7B-88BE-D143-A9A5-6213689753CA}" name="crop_end"/>
-    <tableColumn id="6" xr3:uid="{22680B6F-F907-FD43-BF6C-2E3789C9C356}" name="thr_dur" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{22680B6F-F907-FD43-BF6C-2E3789C9C356}" name="thr_dur" dataDxfId="12"/>
     <tableColumn id="43" xr3:uid="{0ACC25F8-5611-FA4F-B49C-6E30F1D95C08}" name="extent_N"/>
     <tableColumn id="44" xr3:uid="{7341665D-D68F-3E48-95CE-8E270ED9FA6A}" name="extent_W"/>
     <tableColumn id="45" xr3:uid="{18F1D038-2D60-FF49-8711-16897DCC1A1A}" name="extent_S"/>
@@ -813,27 +839,25 @@
     <tableColumn id="50" xr3:uid="{98646B4B-4B26-0A4C-A7C3-1140DBCABB7B}" name="prob_map_s"/>
     <tableColumn id="12" xr3:uid="{A646D821-0BC3-7144-9611-00F929630647}" name="prob_map_s_calib"/>
     <tableColumn id="51" xr3:uid="{AD7A8CAB-A777-7C4D-A6A2-601A4074FBB2}" name="prob_map_thr"/>
-    <tableColumn id="42" xr3:uid="{BF18370D-EF9D-424D-B4AE-3A176A692D5A}" name="shift_k" dataDxfId="12"/>
+    <tableColumn id="42" xr3:uid="{BF18370D-EF9D-424D-B4AE-3A176A692D5A}" name="shift_k" dataDxfId="11"/>
     <tableColumn id="11" xr3:uid="{85327B51-BF51-A643-9746-0720CC021C70}" name="kernel_adjust"/>
     <tableColumn id="9" xr3:uid="{0D248294-1CA3-E44D-A900-569DE950BA49}" name="calib_lon"/>
     <tableColumn id="10" xr3:uid="{50C46AB1-CB9A-B84C-B41F-D6DF90BD8412}" name="calib_lat"/>
-    <tableColumn id="19" xr3:uid="{F555DC9A-9393-234D-92AB-138553DAA03D}" name="calib_1_start" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{F0057B32-84F6-0D4E-B0D3-B8591BCF0A33}" name="calib_1_end" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{72C1CC5C-0A2A-3140-9A33-1BAC20CBDE1B}" name="calib_2_start" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{1E9B142A-92EB-D647-BB56-ADFB8F3B1DE9}" name="calib_2_end" dataDxfId="8"/>
-    <tableColumn id="40" xr3:uid="{ABB1AA27-3007-954E-BFD9-D15B5759E520}" name="calib_2_lon" dataDxfId="7"/>
-    <tableColumn id="41" xr3:uid="{5A6DF468-93CA-8E49-B529-24F965EC5A68}" name="calib_2_lat" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{C1C8E7B8-04FB-6241-9466-61A298BC202A}" name="prob_light_w" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{CA9C149A-C070-ED44-9095-795932D8BA41}" name="thr_prob_percentile" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{74B13C9B-EDD7-A24E-A7E5-146255BCE559}" name="thr_gs" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{07BAD23C-A227-CE4D-A5DA-81F573B31782}" name="thr_as" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{4C9C4E26-983D-354E-9081-3E245F2F2396}" name="low_speed_fix" dataDxfId="1"/>
-    <tableColumn id="32" xr3:uid="{8FB298A1-7B27-ED49-9E23-106210114304}" name="ringNo" dataDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{F555DC9A-9393-234D-92AB-138553DAA03D}" name="calib_1_start" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{F0057B32-84F6-0D4E-B0D3-B8591BCF0A33}" name="calib_1_end" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{72C1CC5C-0A2A-3140-9A33-1BAC20CBDE1B}" name="calib_2_start" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{1E9B142A-92EB-D647-BB56-ADFB8F3B1DE9}" name="calib_2_end" dataDxfId="7"/>
+    <tableColumn id="40" xr3:uid="{ABB1AA27-3007-954E-BFD9-D15B5759E520}" name="calib_2_lon" dataDxfId="6"/>
+    <tableColumn id="41" xr3:uid="{5A6DF468-93CA-8E49-B529-24F965EC5A68}" name="calib_2_lat" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{C1C8E7B8-04FB-6241-9466-61A298BC202A}" name="prob_light_w" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{CA9C149A-C070-ED44-9095-795932D8BA41}" name="thr_prob_percentile" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{74B13C9B-EDD7-A24E-A7E5-146255BCE559}" name="thr_gs" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{07BAD23C-A227-CE4D-A5DA-81F573B31782}" name="thr_as" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{4C9C4E26-983D-354E-9081-3E245F2F2396}" name="low_speed_fix" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{437D6807-140D-EC48-A588-9CA0C70671A6}" name="scientific_name"/>
     <tableColumn id="5" xr3:uid="{E0EF373A-0600-B64D-81CD-63E6714931D7}" name="common_name"/>
     <tableColumn id="34" xr3:uid="{AAB4E28F-C2D5-A44D-A5CF-C6EA295E6EC5}" name="mass"/>
     <tableColumn id="33" xr3:uid="{FE34BCA4-242F-3342-9900-5E0B6676722C}" name="wing_span"/>
-    <tableColumn id="27" xr3:uid="{EFA82C59-4775-1545-BF9E-65F94819FAF1}" name="color"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1136,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1151,19 +1175,18 @@
     <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.1640625" customWidth="1"/>
     <col min="22" max="22" width="14.1640625" customWidth="1"/>
-    <col min="23" max="29" width="17.33203125" customWidth="1"/>
-    <col min="31" max="31" width="17.33203125" customWidth="1"/>
-    <col min="32" max="32" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.5" customWidth="1"/>
-    <col min="39" max="39" width="16.33203125" customWidth="1"/>
-    <col min="45" max="47" width="15.1640625" customWidth="1"/>
-    <col min="48" max="48" width="14.5" customWidth="1"/>
-    <col min="49" max="49" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="30" width="17.33203125" customWidth="1"/>
+    <col min="31" max="31" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5" customWidth="1"/>
+    <col min="37" max="37" width="16.33203125" customWidth="1"/>
+    <col min="43" max="45" width="15.1640625" customWidth="1"/>
+    <col min="46" max="46" width="14.5" customWidth="1"/>
+    <col min="47" max="47" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1201,7 +1224,7 @@
         <v>23</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
         <v>24</v>
@@ -1210,7 +1233,7 @@
         <v>5</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q1" t="s">
         <v>6</v>
@@ -1240,47 +1263,37 @@
         <v>25</v>
       </c>
       <c r="Z1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1">
-        <v>42906</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43222</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3">
         <v>12</v>
       </c>
       <c r="E2">
@@ -1322,44 +1335,142 @@
       <c r="R2">
         <v>48.9</v>
       </c>
-      <c r="S2" s="1">
-        <v>42906</v>
-      </c>
-      <c r="T2" s="1">
-        <v>42952</v>
-      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="4">
+      <c r="Y2" s="3">
         <v>0.1</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Z2" s="3">
         <v>0.9</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2" s="3">
         <v>120</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AB2" s="3">
         <v>100</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AC2" s="3">
         <v>15</v>
       </c>
-      <c r="AE2" t="s">
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AF2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI2" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
     </row>
-    <row r="8" spans="1:35">
-      <c r="R8" s="3"/>
+    <row r="7" spans="1:33">
+      <c r="A7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
     </row>
-    <row r="13" spans="1:35">
-      <c r="H13" s="5"/>
+    <row r="8" spans="1:33">
+      <c r="R8" s="2"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="H13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>

--- a/data/gpr_settings.xlsx
+++ b/data/gpr_settings.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphael/Library/CloudStorage/Box-Box/Siberian-rubythroat-China/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_sak\Desktop\work with Barbara\data related\2022 spring\CAnMove\Siberian-rubythroat-China-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B657AD53-9160-FA40-850F-52CEAB04AEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE84CB09-0016-4FE9-BEF8-A3645665A0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="2320" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tracks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>mass</t>
   </si>
@@ -132,6 +130,12 @@
     <t>thr_as</t>
   </si>
   <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>ringNo</t>
+  </si>
+  <si>
     <t>5D6</t>
   </si>
   <si>
@@ -144,17 +148,23 @@
     <t>5E5</t>
   </si>
   <si>
-    <t>5E6</t>
-  </si>
-  <si>
     <t>5E7</t>
+  </si>
+  <si>
+    <t>56C</t>
+  </si>
+  <si>
+    <t>Calliope calliope</t>
+  </si>
+  <si>
+    <t>Siberian rubythroat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -312,13 +322,8 @@
       <color rgb="FFAD0000"/>
       <name val="Var(--bs-font-monospace)"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,6 +501,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -615,16 +626,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="22"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -673,68 +682,66 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="22" fillId="0" borderId="10" xfId="42" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Normal_Feuil1" xfId="42" xr:uid="{8AFC0ED7-28F5-BA46-A690-A168717D03E3}"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -751,22 +758,22 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -790,6 +797,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -822,13 +830,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}" name="Table1" displayName="Table1" ref="A1:AG7" totalsRowShown="0">
-  <autoFilter ref="A1:AG7" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}"/>
-  <tableColumns count="33">
-    <tableColumn id="3" xr3:uid="{0E08F938-60A9-C640-A060-C64653A1D0F0}" name="gdl_id" dataDxfId="13" dataCellStyle="Normal_Feuil1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}" name="Table1" displayName="Table1" ref="A1:AI2" totalsRowShown="0">
+  <autoFilter ref="A1:AI2" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}"/>
+  <tableColumns count="35">
+    <tableColumn id="3" xr3:uid="{0E08F938-60A9-C640-A060-C64653A1D0F0}" name="gdl_id" dataDxfId="14" dataCellStyle="Normal_Feuil1"/>
     <tableColumn id="38" xr3:uid="{5F80A124-B607-6D47-A8B2-B6EBC16D0EC2}" name="crop_start"/>
     <tableColumn id="39" xr3:uid="{C4B8ED7B-88BE-D143-A9A5-6213689753CA}" name="crop_end"/>
-    <tableColumn id="6" xr3:uid="{22680B6F-F907-FD43-BF6C-2E3789C9C356}" name="thr_dur" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{22680B6F-F907-FD43-BF6C-2E3789C9C356}" name="thr_dur" dataDxfId="13"/>
     <tableColumn id="43" xr3:uid="{0ACC25F8-5611-FA4F-B49C-6E30F1D95C08}" name="extent_N"/>
     <tableColumn id="44" xr3:uid="{7341665D-D68F-3E48-95CE-8E270ED9FA6A}" name="extent_W"/>
     <tableColumn id="45" xr3:uid="{18F1D038-2D60-FF49-8711-16897DCC1A1A}" name="extent_S"/>
@@ -839,32 +847,34 @@
     <tableColumn id="50" xr3:uid="{98646B4B-4B26-0A4C-A7C3-1140DBCABB7B}" name="prob_map_s"/>
     <tableColumn id="12" xr3:uid="{A646D821-0BC3-7144-9611-00F929630647}" name="prob_map_s_calib"/>
     <tableColumn id="51" xr3:uid="{AD7A8CAB-A777-7C4D-A6A2-601A4074FBB2}" name="prob_map_thr"/>
-    <tableColumn id="42" xr3:uid="{BF18370D-EF9D-424D-B4AE-3A176A692D5A}" name="shift_k" dataDxfId="11"/>
+    <tableColumn id="42" xr3:uid="{BF18370D-EF9D-424D-B4AE-3A176A692D5A}" name="shift_k" dataDxfId="12"/>
     <tableColumn id="11" xr3:uid="{85327B51-BF51-A643-9746-0720CC021C70}" name="kernel_adjust"/>
     <tableColumn id="9" xr3:uid="{0D248294-1CA3-E44D-A900-569DE950BA49}" name="calib_lon"/>
     <tableColumn id="10" xr3:uid="{50C46AB1-CB9A-B84C-B41F-D6DF90BD8412}" name="calib_lat"/>
-    <tableColumn id="19" xr3:uid="{F555DC9A-9393-234D-92AB-138553DAA03D}" name="calib_1_start" dataDxfId="10"/>
-    <tableColumn id="20" xr3:uid="{F0057B32-84F6-0D4E-B0D3-B8591BCF0A33}" name="calib_1_end" dataDxfId="9"/>
-    <tableColumn id="21" xr3:uid="{72C1CC5C-0A2A-3140-9A33-1BAC20CBDE1B}" name="calib_2_start" dataDxfId="8"/>
-    <tableColumn id="22" xr3:uid="{1E9B142A-92EB-D647-BB56-ADFB8F3B1DE9}" name="calib_2_end" dataDxfId="7"/>
-    <tableColumn id="40" xr3:uid="{ABB1AA27-3007-954E-BFD9-D15B5759E520}" name="calib_2_lon" dataDxfId="6"/>
-    <tableColumn id="41" xr3:uid="{5A6DF468-93CA-8E49-B529-24F965EC5A68}" name="calib_2_lat" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{C1C8E7B8-04FB-6241-9466-61A298BC202A}" name="prob_light_w" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{CA9C149A-C070-ED44-9095-795932D8BA41}" name="thr_prob_percentile" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{74B13C9B-EDD7-A24E-A7E5-146255BCE559}" name="thr_gs" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{07BAD23C-A227-CE4D-A5DA-81F573B31782}" name="thr_as" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{4C9C4E26-983D-354E-9081-3E245F2F2396}" name="low_speed_fix" dataDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{F555DC9A-9393-234D-92AB-138553DAA03D}" name="calib_1_start" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{F0057B32-84F6-0D4E-B0D3-B8591BCF0A33}" name="calib_1_end" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{72C1CC5C-0A2A-3140-9A33-1BAC20CBDE1B}" name="calib_2_start" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{1E9B142A-92EB-D647-BB56-ADFB8F3B1DE9}" name="calib_2_end" dataDxfId="8"/>
+    <tableColumn id="40" xr3:uid="{ABB1AA27-3007-954E-BFD9-D15B5759E520}" name="calib_2_lon" dataDxfId="7"/>
+    <tableColumn id="41" xr3:uid="{5A6DF468-93CA-8E49-B529-24F965EC5A68}" name="calib_2_lat" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C1C8E7B8-04FB-6241-9466-61A298BC202A}" name="prob_light_w" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{CA9C149A-C070-ED44-9095-795932D8BA41}" name="thr_prob_percentile" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{74B13C9B-EDD7-A24E-A7E5-146255BCE559}" name="thr_gs" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{07BAD23C-A227-CE4D-A5DA-81F573B31782}" name="thr_as" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{4C9C4E26-983D-354E-9081-3E245F2F2396}" name="low_speed_fix" dataDxfId="1"/>
+    <tableColumn id="32" xr3:uid="{8FB298A1-7B27-ED49-9E23-106210114304}" name="ringNo" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{437D6807-140D-EC48-A588-9CA0C70671A6}" name="scientific_name"/>
     <tableColumn id="5" xr3:uid="{E0EF373A-0600-B64D-81CD-63E6714931D7}" name="common_name"/>
     <tableColumn id="34" xr3:uid="{AAB4E28F-C2D5-A44D-A5CF-C6EA295E6EC5}" name="mass"/>
     <tableColumn id="33" xr3:uid="{FE34BCA4-242F-3342-9900-5E0B6676722C}" name="wing_span"/>
+    <tableColumn id="27" xr3:uid="{EFA82C59-4775-1545-BF9E-65F94819FAF1}" name="color"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1160,33 +1170,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="15" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" customWidth="1"/>
-    <col min="18" max="18" width="18.83203125" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.1640625" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" customWidth="1"/>
-    <col min="23" max="30" width="17.33203125" customWidth="1"/>
-    <col min="31" max="31" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.5" customWidth="1"/>
-    <col min="37" max="37" width="16.33203125" customWidth="1"/>
-    <col min="43" max="45" width="15.1640625" customWidth="1"/>
-    <col min="46" max="46" width="14.5" customWidth="1"/>
-    <col min="47" max="47" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.1875" customWidth="1"/>
+    <col min="18" max="18" width="18.8125" customWidth="1"/>
+    <col min="19" max="19" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.3125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.1875" customWidth="1"/>
+    <col min="22" max="22" width="14.1875" customWidth="1"/>
+    <col min="23" max="29" width="17.3125" customWidth="1"/>
+    <col min="31" max="31" width="17.3125" customWidth="1"/>
+    <col min="32" max="32" width="23.6875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.5" customWidth="1"/>
+    <col min="39" max="39" width="16.3125" customWidth="1"/>
+    <col min="45" max="47" width="15.1875" customWidth="1"/>
+    <col min="48" max="48" width="14.5" customWidth="1"/>
+    <col min="49" max="49" width="10.6875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1275,38 +1286,48 @@
         <v>31</v>
       </c>
       <c r="AD1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>4</v>
       </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3">
-        <v>12</v>
+    <row r="2" spans="1:35">
+      <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44336</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F2">
-        <v>-16</v>
+        <v>90</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -1329,155 +1350,470 @@
       <c r="P2">
         <v>1.4</v>
       </c>
-      <c r="Q2">
-        <v>17.05</v>
-      </c>
-      <c r="R2">
-        <v>48.9</v>
-      </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="3">
+      <c r="U2" s="1">
+        <v>44326</v>
+      </c>
+      <c r="V2" s="1">
+        <v>44336</v>
+      </c>
+      <c r="W2">
+        <v>101.73</v>
+      </c>
+      <c r="X2">
+        <v>37.04</v>
+      </c>
+      <c r="Y2">
         <v>0.1</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="Z2">
         <v>0.9</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA2">
         <v>120</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AB2">
         <v>100</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AC2">
         <v>15</v>
       </c>
+      <c r="AE2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI2" s="2"/>
     </row>
-    <row r="3" spans="1:33">
-      <c r="A3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
+    <row r="3" spans="1:35">
+      <c r="A3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7">
+        <v>44058</v>
+      </c>
+      <c r="C3" s="7">
+        <v>44336</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43</v>
+      </c>
+      <c r="F3" s="5">
+        <v>90</v>
+      </c>
+      <c r="G3" s="5">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5">
+        <v>116</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>300</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0.9</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1.4</v>
+      </c>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7">
+        <v>44326</v>
+      </c>
+      <c r="V3" s="7">
+        <v>44336</v>
+      </c>
+      <c r="W3">
+        <v>101.73</v>
+      </c>
+      <c r="X3">
+        <v>37.04</v>
+      </c>
+      <c r="Y3">
+        <v>0.1</v>
+      </c>
+      <c r="Z3">
+        <v>0.9</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>120</v>
+      </c>
+      <c r="AB3">
+        <v>100</v>
+      </c>
+      <c r="AC3">
+        <v>15</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI3" s="2"/>
     </row>
-    <row r="4" spans="1:33">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
+    <row r="4" spans="1:35">
+      <c r="A4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44058</v>
+      </c>
+      <c r="C4" s="7">
+        <v>44336</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>43</v>
+      </c>
+      <c r="F4" s="5">
+        <v>90</v>
+      </c>
+      <c r="G4" s="5">
+        <v>5</v>
+      </c>
+      <c r="H4" s="5">
+        <v>116</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>300</v>
+      </c>
+      <c r="K4">
+        <v>30</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0.9</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1.4</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7">
+        <v>44326</v>
+      </c>
+      <c r="V4" s="7">
+        <v>44336</v>
+      </c>
+      <c r="W4">
+        <v>101.73</v>
+      </c>
+      <c r="X4">
+        <v>37.04</v>
+      </c>
+      <c r="Y4">
+        <v>0.1</v>
+      </c>
+      <c r="Z4">
+        <v>0.9</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>120</v>
+      </c>
+      <c r="AB4">
+        <v>100</v>
+      </c>
+      <c r="AC4">
+        <v>15</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI4" s="2"/>
     </row>
-    <row r="5" spans="1:33">
-      <c r="A5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
+    <row r="5" spans="1:35">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="7">
+        <v>44058</v>
+      </c>
+      <c r="C5" s="7">
+        <v>44336</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>43</v>
+      </c>
+      <c r="F5" s="5">
+        <v>90</v>
+      </c>
+      <c r="G5" s="5">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5">
+        <v>116</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>300</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0.9</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1.4</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7">
+        <v>44326</v>
+      </c>
+      <c r="V5" s="7">
+        <v>44336</v>
+      </c>
+      <c r="W5">
+        <v>101.73</v>
+      </c>
+      <c r="X5">
+        <v>37.04</v>
+      </c>
+      <c r="Y5">
+        <v>0.1</v>
+      </c>
+      <c r="Z5">
+        <v>0.9</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>120</v>
+      </c>
+      <c r="AB5">
+        <v>100</v>
+      </c>
+      <c r="AC5">
+        <v>15</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:33">
-      <c r="A6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
+    <row r="6" spans="1:35">
+      <c r="A6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7">
+        <v>44058</v>
+      </c>
+      <c r="C6" s="7">
+        <v>44336</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43</v>
+      </c>
+      <c r="F6" s="5">
+        <v>90</v>
+      </c>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>116</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>300</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0.9</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1.4</v>
+      </c>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7">
+        <v>44326</v>
+      </c>
+      <c r="V6" s="7">
+        <v>44336</v>
+      </c>
+      <c r="W6">
+        <v>101.59</v>
+      </c>
+      <c r="X6">
+        <v>37.020000000000003</v>
+      </c>
+      <c r="Y6">
+        <v>0.1</v>
+      </c>
+      <c r="Z6">
+        <v>0.9</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>120</v>
+      </c>
+      <c r="AB6">
+        <v>100</v>
+      </c>
+      <c r="AC6">
+        <v>15</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:33">
-      <c r="A7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
+    <row r="7" spans="1:35">
+      <c r="A7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="7">
+        <v>44058</v>
+      </c>
+      <c r="C7" s="7">
+        <v>44336</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43</v>
+      </c>
+      <c r="F7" s="5">
+        <v>90</v>
+      </c>
+      <c r="G7" s="5">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5">
+        <v>116</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>300</v>
+      </c>
+      <c r="K7">
+        <v>30</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0.9</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1.4</v>
+      </c>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7">
+        <v>44326</v>
+      </c>
+      <c r="V7" s="7">
+        <v>44336</v>
+      </c>
+      <c r="W7">
+        <v>101.73</v>
+      </c>
+      <c r="X7">
+        <v>37.04</v>
+      </c>
+      <c r="Y7">
+        <v>0.1</v>
+      </c>
+      <c r="Z7">
+        <v>0.9</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>120</v>
+      </c>
+      <c r="AB7">
+        <v>100</v>
+      </c>
+      <c r="AC7">
+        <v>15</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:33">
-      <c r="R8" s="2"/>
+    <row r="8" spans="1:35">
+      <c r="R8" s="3"/>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:35">
       <c r="H13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/gpr_settings.xlsx
+++ b/data/gpr_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_sak\Desktop\work with Barbara\data related\2022 spring\CAnMove\Siberian-rubythroat-China-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE84CB09-0016-4FE9-BEF8-A3645665A0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448ED11A-0A42-4C78-AC17-5B0171A099F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1173,7 +1173,7 @@
   <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1315,7 +1315,7 @@
         <v>44336</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>43</v>

--- a/data/gpr_settings.xlsx
+++ b/data/gpr_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_sak\Desktop\work with Barbara\data related\2022 spring\CAnMove\Siberian-rubythroat-China-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448ED11A-0A42-4C78-AC17-5B0171A099F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C11B69D-C373-46F6-9352-3A3DA4B0EB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,7 +682,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -691,7 +691,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1172,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1353,10 +1352,10 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1">
-        <v>44326</v>
+        <v>44313</v>
       </c>
       <c r="V2" s="1">
-        <v>44336</v>
+        <v>44333</v>
       </c>
       <c r="W2">
         <v>101.73</v>
@@ -1453,7 +1452,7 @@
       <c r="Z3">
         <v>0.9</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AA3" s="5">
         <v>120</v>
       </c>
       <c r="AB3">
@@ -1536,7 +1535,7 @@
       <c r="Z4">
         <v>0.9</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AA4" s="5">
         <v>120</v>
       </c>
       <c r="AB4">
@@ -1619,7 +1618,7 @@
       <c r="Z5">
         <v>0.9</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AA5" s="5">
         <v>120</v>
       </c>
       <c r="AB5">
@@ -1702,7 +1701,7 @@
       <c r="Z6">
         <v>0.9</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AA6" s="5">
         <v>120</v>
       </c>
       <c r="AB6">
@@ -1785,7 +1784,7 @@
       <c r="Z7">
         <v>0.9</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AA7" s="5">
         <v>120</v>
       </c>
       <c r="AB7">

--- a/data/gpr_settings.xlsx
+++ b/data/gpr_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_sak\Desktop\work with Barbara\data related\2022 spring\CAnMove\Siberian-rubythroat-China-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C11B69D-C373-46F6-9352-3A3DA4B0EB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC37E84F-60C9-4AD6-9A69-081BAE030CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1171,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1314,7 +1314,7 @@
         <v>44336</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>43</v>
@@ -1397,7 +1397,7 @@
         <v>44336</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E3" s="5">
         <v>43</v>
@@ -1435,10 +1435,10 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7">
-        <v>44326</v>
+        <v>44321</v>
       </c>
       <c r="V3" s="7">
-        <v>44336</v>
+        <v>44334</v>
       </c>
       <c r="W3">
         <v>101.73</v>
@@ -1480,7 +1480,7 @@
         <v>44336</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E4" s="5">
         <v>43</v>
@@ -1518,10 +1518,10 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7">
-        <v>44326</v>
+        <v>44321</v>
       </c>
       <c r="V4" s="7">
-        <v>44336</v>
+        <v>44334</v>
       </c>
       <c r="W4">
         <v>101.73</v>
@@ -1601,10 +1601,10 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7">
-        <v>44326</v>
+        <v>44321</v>
       </c>
       <c r="V5" s="7">
-        <v>44336</v>
+        <v>44334</v>
       </c>
       <c r="W5">
         <v>101.73</v>
@@ -1646,7 +1646,7 @@
         <v>44336</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E6" s="5">
         <v>43</v>
@@ -1684,10 +1684,10 @@
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7">
-        <v>44326</v>
+        <v>44321</v>
       </c>
       <c r="V6" s="7">
-        <v>44336</v>
+        <v>44334</v>
       </c>
       <c r="W6">
         <v>101.59</v>
@@ -1729,7 +1729,7 @@
         <v>44336</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5">
         <v>43</v>
@@ -1766,18 +1766,8 @@
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
-      <c r="U7" s="7">
-        <v>44326</v>
-      </c>
-      <c r="V7" s="7">
-        <v>44336</v>
-      </c>
-      <c r="W7">
-        <v>101.73</v>
-      </c>
-      <c r="X7">
-        <v>37.04</v>
-      </c>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
       <c r="Y7">
         <v>0.1</v>
       </c>

--- a/data/gpr_settings.xlsx
+++ b/data/gpr_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_sak\Desktop\work with Barbara\data related\2022 spring\CAnMove\Siberian-rubythroat-China-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphael/Library/CloudStorage/Box-Box/Siberian-rubythroat-China/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C11B69D-C373-46F6-9352-3A3DA4B0EB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04482BF6-1642-8E4D-A123-59AB198F0DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1220" yWindow="500" windowWidth="37180" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tracks" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>mass</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>color</t>
-  </si>
-  <si>
-    <t>ringNo</t>
   </si>
   <si>
     <t>5D6</t>
@@ -323,7 +320,7 @@
       <name val="Var(--bs-font-monospace)"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,14 +500,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -625,17 +616,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -682,64 +662,108 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Feuil1" xfId="42" xr:uid="{8AFC0ED7-28F5-BA46-A690-A168717D03E3}"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -757,22 +781,22 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -829,13 +853,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}" name="Table1" displayName="Table1" ref="A1:AI2" totalsRowShown="0">
-  <autoFilter ref="A1:AI2" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}"/>
-  <tableColumns count="35">
-    <tableColumn id="3" xr3:uid="{0E08F938-60A9-C640-A060-C64653A1D0F0}" name="gdl_id" dataDxfId="14" dataCellStyle="Normal_Feuil1"/>
-    <tableColumn id="38" xr3:uid="{5F80A124-B607-6D47-A8B2-B6EBC16D0EC2}" name="crop_start"/>
-    <tableColumn id="39" xr3:uid="{C4B8ED7B-88BE-D143-A9A5-6213689753CA}" name="crop_end"/>
-    <tableColumn id="6" xr3:uid="{22680B6F-F907-FD43-BF6C-2E3789C9C356}" name="thr_dur" dataDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}" name="Table1" displayName="Table1" ref="A1:AH7" totalsRowShown="0">
+  <autoFilter ref="A1:AH7" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}"/>
+  <tableColumns count="34">
+    <tableColumn id="3" xr3:uid="{0E08F938-60A9-C640-A060-C64653A1D0F0}" name="gdl_id" dataDxfId="17" dataCellStyle="Normal_Feuil1"/>
+    <tableColumn id="38" xr3:uid="{5F80A124-B607-6D47-A8B2-B6EBC16D0EC2}" name="crop_start" dataDxfId="3"/>
+    <tableColumn id="39" xr3:uid="{C4B8ED7B-88BE-D143-A9A5-6213689753CA}" name="crop_end" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{22680B6F-F907-FD43-BF6C-2E3789C9C356}" name="thr_dur" dataDxfId="16"/>
     <tableColumn id="43" xr3:uid="{0ACC25F8-5611-FA4F-B49C-6E30F1D95C08}" name="extent_N"/>
     <tableColumn id="44" xr3:uid="{7341665D-D68F-3E48-95CE-8E270ED9FA6A}" name="extent_W"/>
     <tableColumn id="45" xr3:uid="{18F1D038-2D60-FF49-8711-16897DCC1A1A}" name="extent_S"/>
@@ -846,24 +870,23 @@
     <tableColumn id="50" xr3:uid="{98646B4B-4B26-0A4C-A7C3-1140DBCABB7B}" name="prob_map_s"/>
     <tableColumn id="12" xr3:uid="{A646D821-0BC3-7144-9611-00F929630647}" name="prob_map_s_calib"/>
     <tableColumn id="51" xr3:uid="{AD7A8CAB-A777-7C4D-A6A2-601A4074FBB2}" name="prob_map_thr"/>
-    <tableColumn id="42" xr3:uid="{BF18370D-EF9D-424D-B4AE-3A176A692D5A}" name="shift_k" dataDxfId="12"/>
+    <tableColumn id="42" xr3:uid="{BF18370D-EF9D-424D-B4AE-3A176A692D5A}" name="shift_k" dataDxfId="15"/>
     <tableColumn id="11" xr3:uid="{85327B51-BF51-A643-9746-0720CC021C70}" name="kernel_adjust"/>
     <tableColumn id="9" xr3:uid="{0D248294-1CA3-E44D-A900-569DE950BA49}" name="calib_lon"/>
     <tableColumn id="10" xr3:uid="{50C46AB1-CB9A-B84C-B41F-D6DF90BD8412}" name="calib_lat"/>
-    <tableColumn id="19" xr3:uid="{F555DC9A-9393-234D-92AB-138553DAA03D}" name="calib_1_start" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{F0057B32-84F6-0D4E-B0D3-B8591BCF0A33}" name="calib_1_end" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{72C1CC5C-0A2A-3140-9A33-1BAC20CBDE1B}" name="calib_2_start" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{1E9B142A-92EB-D647-BB56-ADFB8F3B1DE9}" name="calib_2_end" dataDxfId="8"/>
-    <tableColumn id="40" xr3:uid="{ABB1AA27-3007-954E-BFD9-D15B5759E520}" name="calib_2_lon" dataDxfId="7"/>
-    <tableColumn id="41" xr3:uid="{5A6DF468-93CA-8E49-B529-24F965EC5A68}" name="calib_2_lat" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{C1C8E7B8-04FB-6241-9466-61A298BC202A}" name="prob_light_w" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{CA9C149A-C070-ED44-9095-795932D8BA41}" name="thr_prob_percentile" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{74B13C9B-EDD7-A24E-A7E5-146255BCE559}" name="thr_gs" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{07BAD23C-A227-CE4D-A5DA-81F573B31782}" name="thr_as" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{4C9C4E26-983D-354E-9081-3E245F2F2396}" name="low_speed_fix" dataDxfId="1"/>
-    <tableColumn id="32" xr3:uid="{8FB298A1-7B27-ED49-9E23-106210114304}" name="ringNo" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{437D6807-140D-EC48-A588-9CA0C70671A6}" name="scientific_name"/>
-    <tableColumn id="5" xr3:uid="{E0EF373A-0600-B64D-81CD-63E6714931D7}" name="common_name"/>
+    <tableColumn id="19" xr3:uid="{F555DC9A-9393-234D-92AB-138553DAA03D}" name="calib_1_start" dataDxfId="14"/>
+    <tableColumn id="20" xr3:uid="{F0057B32-84F6-0D4E-B0D3-B8591BCF0A33}" name="calib_1_end" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{72C1CC5C-0A2A-3140-9A33-1BAC20CBDE1B}" name="calib_2_start" dataDxfId="12"/>
+    <tableColumn id="22" xr3:uid="{1E9B142A-92EB-D647-BB56-ADFB8F3B1DE9}" name="calib_2_end" dataDxfId="11"/>
+    <tableColumn id="40" xr3:uid="{ABB1AA27-3007-954E-BFD9-D15B5759E520}" name="calib_2_lon" dataDxfId="10"/>
+    <tableColumn id="41" xr3:uid="{5A6DF468-93CA-8E49-B529-24F965EC5A68}" name="calib_2_lat" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C1C8E7B8-04FB-6241-9466-61A298BC202A}" name="prob_light_w" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{CA9C149A-C070-ED44-9095-795932D8BA41}" name="thr_prob_percentile" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{74B13C9B-EDD7-A24E-A7E5-146255BCE559}" name="thr_gs" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{07BAD23C-A227-CE4D-A5DA-81F573B31782}" name="thr_as" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{4C9C4E26-983D-354E-9081-3E245F2F2396}" name="low_speed_fix" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{437D6807-140D-EC48-A588-9CA0C70671A6}" name="scientific_name" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{E0EF373A-0600-B64D-81CD-63E6714931D7}" name="common_name" dataDxfId="0"/>
     <tableColumn id="34" xr3:uid="{AAB4E28F-C2D5-A44D-A5CF-C6EA295E6EC5}" name="mass"/>
     <tableColumn id="33" xr3:uid="{FE34BCA4-242F-3342-9900-5E0B6676722C}" name="wing_span"/>
     <tableColumn id="27" xr3:uid="{EFA82C59-4775-1545-BF9E-65F94819FAF1}" name="color"/>
@@ -873,7 +896,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1169,34 +1192,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="15" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="15.1875" customWidth="1"/>
-    <col min="18" max="18" width="18.8125" customWidth="1"/>
-    <col min="19" max="19" width="14.3125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.3125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.1875" customWidth="1"/>
-    <col min="22" max="22" width="14.1875" customWidth="1"/>
-    <col min="23" max="29" width="17.3125" customWidth="1"/>
-    <col min="31" max="31" width="17.3125" customWidth="1"/>
-    <col min="32" max="32" width="23.6875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.5" customWidth="1"/>
-    <col min="39" max="39" width="16.3125" customWidth="1"/>
-    <col min="45" max="47" width="15.1875" customWidth="1"/>
-    <col min="48" max="48" width="14.5" customWidth="1"/>
-    <col min="49" max="49" width="10.6875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" customWidth="1"/>
+    <col min="18" max="18" width="18.83203125" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.1640625" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" customWidth="1"/>
+    <col min="23" max="30" width="17.33203125" customWidth="1"/>
+    <col min="31" max="31" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5" customWidth="1"/>
+    <col min="38" max="38" width="16.33203125" customWidth="1"/>
+    <col min="44" max="46" width="15.1640625" customWidth="1"/>
+    <col min="47" max="47" width="14.5" customWidth="1"/>
+    <col min="48" max="48" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1285,27 +1307,24 @@
         <v>31</v>
       </c>
       <c r="AD1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
-      <c r="A2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>44058</v>
@@ -1314,7 +1333,7 @@
         <v>44336</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>43</v>
@@ -1349,8 +1368,6 @@
       <c r="P2">
         <v>1.4</v>
       </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
       <c r="U2" s="1">
         <v>44313</v>
       </c>
@@ -1378,37 +1395,37 @@
       <c r="AC2">
         <v>15</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AD2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AF2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI2" s="2"/>
+      <c r="AH2" s="2"/>
     </row>
-    <row r="3" spans="1:35">
-      <c r="A3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="7">
+    <row r="3" spans="1:34">
+      <c r="A3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1">
         <v>44058</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="1">
         <v>44336</v>
       </c>
       <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>43</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3">
         <v>90</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3">
         <v>116</v>
       </c>
       <c r="I3">
@@ -1432,66 +1449,60 @@
       <c r="P3">
         <v>1.4</v>
       </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7">
+      <c r="U3" s="1">
         <v>44326</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="1">
         <v>44336</v>
       </c>
-      <c r="W3">
-        <v>101.73</v>
-      </c>
-      <c r="X3">
-        <v>37.04</v>
-      </c>
-      <c r="Y3">
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="6">
         <v>0.1</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="6">
         <v>0.9</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AA3">
         <v>120</v>
       </c>
       <c r="AB3">
         <v>100</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="6">
         <v>15</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AD3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AF3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI3" s="2"/>
+      <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:35">
-      <c r="A4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="7">
+    <row r="4" spans="1:34">
+      <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1">
         <v>44058</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="1">
         <v>44336</v>
       </c>
       <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>43</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4">
         <v>90</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4">
         <v>116</v>
       </c>
       <c r="I4">
@@ -1515,66 +1526,60 @@
       <c r="P4">
         <v>1.4</v>
       </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7">
+      <c r="U4" s="1">
         <v>44326</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="1">
         <v>44336</v>
       </c>
-      <c r="W4">
-        <v>101.73</v>
-      </c>
-      <c r="X4">
-        <v>37.04</v>
-      </c>
-      <c r="Y4">
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="6">
         <v>0.1</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="6">
         <v>0.9</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4">
         <v>120</v>
       </c>
       <c r="AB4">
         <v>100</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="6">
         <v>15</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AD4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI4" s="2"/>
+      <c r="AH4" s="2"/>
     </row>
-    <row r="5" spans="1:35">
-      <c r="A5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="7">
+    <row r="5" spans="1:34">
+      <c r="A5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1">
         <v>44058</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="1">
         <v>44336</v>
       </c>
       <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>43</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5">
         <v>90</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5">
         <v>116</v>
       </c>
       <c r="I5">
@@ -1598,66 +1603,60 @@
       <c r="P5">
         <v>1.4</v>
       </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7">
+      <c r="U5" s="1">
         <v>44326</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="1">
         <v>44336</v>
       </c>
-      <c r="W5">
-        <v>101.73</v>
-      </c>
-      <c r="X5">
-        <v>37.04</v>
-      </c>
-      <c r="Y5">
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="6">
         <v>0.1</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="6">
         <v>0.9</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5">
         <v>120</v>
       </c>
       <c r="AB5">
         <v>100</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="6">
         <v>15</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AD5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AF5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI5" s="2"/>
+      <c r="AH5" s="2"/>
     </row>
-    <row r="6" spans="1:35">
-      <c r="A6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="7">
+    <row r="6" spans="1:34">
+      <c r="A6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1">
         <v>44058</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="1">
         <v>44336</v>
       </c>
       <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>43</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>90</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6">
         <v>116</v>
       </c>
       <c r="I6">
@@ -1681,66 +1680,60 @@
       <c r="P6">
         <v>1.4</v>
       </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7">
+      <c r="U6" s="1">
         <v>44326</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="1">
         <v>44336</v>
       </c>
-      <c r="W6">
-        <v>101.59</v>
-      </c>
-      <c r="X6">
-        <v>37.020000000000003</v>
-      </c>
-      <c r="Y6">
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="6">
         <v>0.1</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="6">
         <v>0.9</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AA6">
         <v>120</v>
       </c>
       <c r="AB6">
         <v>100</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="6">
         <v>15</v>
       </c>
-      <c r="AE6" s="5" t="s">
+      <c r="AD6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AF6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI6" s="2"/>
+      <c r="AH6" s="2"/>
     </row>
-    <row r="7" spans="1:35">
-      <c r="A7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="7">
+    <row r="7" spans="1:34">
+      <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1">
         <v>44058</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="1">
         <v>44336</v>
       </c>
       <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>43</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7">
         <v>90</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7">
         <v>116</v>
       </c>
       <c r="I7">
@@ -1764,47 +1757,44 @@
       <c r="P7">
         <v>1.4</v>
       </c>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7">
+      <c r="U7" s="1">
         <v>44326</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="1">
         <v>44336</v>
       </c>
-      <c r="W7">
-        <v>101.73</v>
-      </c>
-      <c r="X7">
-        <v>37.04</v>
-      </c>
-      <c r="Y7">
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="7">
         <v>0.1</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="7">
         <v>0.9</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7">
         <v>120</v>
       </c>
       <c r="AB7">
         <v>100</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="7">
         <v>15</v>
       </c>
-      <c r="AE7" s="5" t="s">
+      <c r="AD7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AF7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI7" s="2"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="10"/>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:34">
+      <c r="A8" s="5"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:34">
       <c r="H13" s="4"/>
     </row>
   </sheetData>

--- a/data/gpr_settings.xlsx
+++ b/data/gpr_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphael/Library/CloudStorage/Box-Box/Siberian-rubythroat-China/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_sak\Desktop\work with Barbara\data related\2022 spring\CAnMove\Siberian-rubythroat-China-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04482BF6-1642-8E4D-A123-59AB198F0DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFC4A42-A1F3-4230-A9FE-53E5CFB53B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="500" windowWidth="37180" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tracks" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>mass</t>
   </si>
@@ -133,6 +133,9 @@
     <t>color</t>
   </si>
   <si>
+    <t>ringNo</t>
+  </si>
+  <si>
     <t>5D6</t>
   </si>
   <si>
@@ -155,13 +158,19 @@
   </si>
   <si>
     <t>Siberian rubythroat</t>
+  </si>
+  <si>
+    <t>5CF</t>
+  </si>
+  <si>
+    <t>202204-27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -309,18 +318,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFAD0000"/>
       <name val="Var(--bs-font-monospace)"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,8 +503,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -616,6 +625,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -662,108 +682,63 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Normal_Feuil1" xfId="42" xr:uid="{8AFC0ED7-28F5-BA46-A690-A168717D03E3}"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="15">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -781,22 +756,22 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -853,13 +828,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}" name="Table1" displayName="Table1" ref="A1:AH7" totalsRowShown="0">
-  <autoFilter ref="A1:AH7" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}"/>
-  <tableColumns count="34">
-    <tableColumn id="3" xr3:uid="{0E08F938-60A9-C640-A060-C64653A1D0F0}" name="gdl_id" dataDxfId="17" dataCellStyle="Normal_Feuil1"/>
-    <tableColumn id="38" xr3:uid="{5F80A124-B607-6D47-A8B2-B6EBC16D0EC2}" name="crop_start" dataDxfId="3"/>
-    <tableColumn id="39" xr3:uid="{C4B8ED7B-88BE-D143-A9A5-6213689753CA}" name="crop_end" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{22680B6F-F907-FD43-BF6C-2E3789C9C356}" name="thr_dur" dataDxfId="16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}" name="Table1" displayName="Table1" ref="A1:AI2" totalsRowShown="0">
+  <autoFilter ref="A1:AI2" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}"/>
+  <tableColumns count="35">
+    <tableColumn id="3" xr3:uid="{0E08F938-60A9-C640-A060-C64653A1D0F0}" name="gdl_id" dataDxfId="14" dataCellStyle="Normal_Feuil1"/>
+    <tableColumn id="38" xr3:uid="{5F80A124-B607-6D47-A8B2-B6EBC16D0EC2}" name="crop_start"/>
+    <tableColumn id="39" xr3:uid="{C4B8ED7B-88BE-D143-A9A5-6213689753CA}" name="crop_end"/>
+    <tableColumn id="6" xr3:uid="{22680B6F-F907-FD43-BF6C-2E3789C9C356}" name="thr_dur" dataDxfId="13"/>
     <tableColumn id="43" xr3:uid="{0ACC25F8-5611-FA4F-B49C-6E30F1D95C08}" name="extent_N"/>
     <tableColumn id="44" xr3:uid="{7341665D-D68F-3E48-95CE-8E270ED9FA6A}" name="extent_W"/>
     <tableColumn id="45" xr3:uid="{18F1D038-2D60-FF49-8711-16897DCC1A1A}" name="extent_S"/>
@@ -870,23 +845,24 @@
     <tableColumn id="50" xr3:uid="{98646B4B-4B26-0A4C-A7C3-1140DBCABB7B}" name="prob_map_s"/>
     <tableColumn id="12" xr3:uid="{A646D821-0BC3-7144-9611-00F929630647}" name="prob_map_s_calib"/>
     <tableColumn id="51" xr3:uid="{AD7A8CAB-A777-7C4D-A6A2-601A4074FBB2}" name="prob_map_thr"/>
-    <tableColumn id="42" xr3:uid="{BF18370D-EF9D-424D-B4AE-3A176A692D5A}" name="shift_k" dataDxfId="15"/>
+    <tableColumn id="42" xr3:uid="{BF18370D-EF9D-424D-B4AE-3A176A692D5A}" name="shift_k" dataDxfId="12"/>
     <tableColumn id="11" xr3:uid="{85327B51-BF51-A643-9746-0720CC021C70}" name="kernel_adjust"/>
     <tableColumn id="9" xr3:uid="{0D248294-1CA3-E44D-A900-569DE950BA49}" name="calib_lon"/>
     <tableColumn id="10" xr3:uid="{50C46AB1-CB9A-B84C-B41F-D6DF90BD8412}" name="calib_lat"/>
-    <tableColumn id="19" xr3:uid="{F555DC9A-9393-234D-92AB-138553DAA03D}" name="calib_1_start" dataDxfId="14"/>
-    <tableColumn id="20" xr3:uid="{F0057B32-84F6-0D4E-B0D3-B8591BCF0A33}" name="calib_1_end" dataDxfId="13"/>
-    <tableColumn id="21" xr3:uid="{72C1CC5C-0A2A-3140-9A33-1BAC20CBDE1B}" name="calib_2_start" dataDxfId="12"/>
-    <tableColumn id="22" xr3:uid="{1E9B142A-92EB-D647-BB56-ADFB8F3B1DE9}" name="calib_2_end" dataDxfId="11"/>
-    <tableColumn id="40" xr3:uid="{ABB1AA27-3007-954E-BFD9-D15B5759E520}" name="calib_2_lon" dataDxfId="10"/>
-    <tableColumn id="41" xr3:uid="{5A6DF468-93CA-8E49-B529-24F965EC5A68}" name="calib_2_lat" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{C1C8E7B8-04FB-6241-9466-61A298BC202A}" name="prob_light_w" dataDxfId="8"/>
-    <tableColumn id="1" xr3:uid="{CA9C149A-C070-ED44-9095-795932D8BA41}" name="thr_prob_percentile" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{74B13C9B-EDD7-A24E-A7E5-146255BCE559}" name="thr_gs" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{07BAD23C-A227-CE4D-A5DA-81F573B31782}" name="thr_as" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{4C9C4E26-983D-354E-9081-3E245F2F2396}" name="low_speed_fix" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{437D6807-140D-EC48-A588-9CA0C70671A6}" name="scientific_name" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{E0EF373A-0600-B64D-81CD-63E6714931D7}" name="common_name" dataDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{F555DC9A-9393-234D-92AB-138553DAA03D}" name="calib_1_start" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{F0057B32-84F6-0D4E-B0D3-B8591BCF0A33}" name="calib_1_end" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{72C1CC5C-0A2A-3140-9A33-1BAC20CBDE1B}" name="calib_2_start" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{1E9B142A-92EB-D647-BB56-ADFB8F3B1DE9}" name="calib_2_end" dataDxfId="8"/>
+    <tableColumn id="40" xr3:uid="{ABB1AA27-3007-954E-BFD9-D15B5759E520}" name="calib_2_lon" dataDxfId="7"/>
+    <tableColumn id="41" xr3:uid="{5A6DF468-93CA-8E49-B529-24F965EC5A68}" name="calib_2_lat" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C1C8E7B8-04FB-6241-9466-61A298BC202A}" name="prob_light_w" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{CA9C149A-C070-ED44-9095-795932D8BA41}" name="thr_prob_percentile" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{74B13C9B-EDD7-A24E-A7E5-146255BCE559}" name="thr_gs" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{07BAD23C-A227-CE4D-A5DA-81F573B31782}" name="thr_as" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{4C9C4E26-983D-354E-9081-3E245F2F2396}" name="low_speed_fix" dataDxfId="1"/>
+    <tableColumn id="32" xr3:uid="{8FB298A1-7B27-ED49-9E23-106210114304}" name="ringNo" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{437D6807-140D-EC48-A588-9CA0C70671A6}" name="scientific_name"/>
+    <tableColumn id="5" xr3:uid="{E0EF373A-0600-B64D-81CD-63E6714931D7}" name="common_name"/>
     <tableColumn id="34" xr3:uid="{AAB4E28F-C2D5-A44D-A5CF-C6EA295E6EC5}" name="mass"/>
     <tableColumn id="33" xr3:uid="{FE34BCA4-242F-3342-9900-5E0B6676722C}" name="wing_span"/>
     <tableColumn id="27" xr3:uid="{EFA82C59-4775-1545-BF9E-65F94819FAF1}" name="color"/>
@@ -896,7 +872,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1192,33 +1168,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH13"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI5" sqref="AI5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="15" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" customWidth="1"/>
-    <col min="18" max="18" width="18.83203125" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.1640625" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" customWidth="1"/>
-    <col min="23" max="30" width="17.33203125" customWidth="1"/>
-    <col min="31" max="31" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.5" customWidth="1"/>
-    <col min="38" max="38" width="16.33203125" customWidth="1"/>
-    <col min="44" max="46" width="15.1640625" customWidth="1"/>
-    <col min="47" max="47" width="14.5" customWidth="1"/>
-    <col min="48" max="48" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.25" customWidth="1"/>
+    <col min="18" max="18" width="18.875" customWidth="1"/>
+    <col min="19" max="19" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.25" customWidth="1"/>
+    <col min="22" max="22" width="14.25" customWidth="1"/>
+    <col min="23" max="29" width="17.375" customWidth="1"/>
+    <col min="31" max="31" width="17.375" customWidth="1"/>
+    <col min="32" max="32" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.5" customWidth="1"/>
+    <col min="39" max="39" width="16.375" customWidth="1"/>
+    <col min="45" max="47" width="15.25" customWidth="1"/>
+    <col min="48" max="48" width="14.5" customWidth="1"/>
+    <col min="49" max="49" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1307,24 +1284,27 @@
         <v>31</v>
       </c>
       <c r="AD1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>44058</v>
@@ -1336,13 +1316,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>116</v>
@@ -1368,11 +1348,13 @@
       <c r="P2">
         <v>1.4</v>
       </c>
-      <c r="U2" s="1">
-        <v>44313</v>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="V2" s="1">
-        <v>44333</v>
+        <v>44698</v>
       </c>
       <c r="W2">
         <v>101.73</v>
@@ -1395,37 +1377,37 @@
       <c r="AC2">
         <v>15</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI2" s="2"/>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="6">
+        <v>44058</v>
+      </c>
+      <c r="C3" s="6">
+        <v>44336</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>40</v>
       </c>
-      <c r="AE2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH2" s="2"/>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44058</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44336</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>43</v>
-      </c>
-      <c r="F3">
-        <v>90</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
+      <c r="F3" s="4">
+        <v>95</v>
+      </c>
+      <c r="G3" s="4">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4">
         <v>116</v>
       </c>
       <c r="I3">
@@ -1449,60 +1431,66 @@
       <c r="P3">
         <v>1.4</v>
       </c>
-      <c r="U3" s="1">
-        <v>44326</v>
-      </c>
-      <c r="V3" s="1">
-        <v>44336</v>
-      </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="6">
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6">
+        <v>44686</v>
+      </c>
+      <c r="V3" s="6">
+        <v>44699</v>
+      </c>
+      <c r="W3">
+        <v>101.73</v>
+      </c>
+      <c r="X3">
+        <v>37.04</v>
+      </c>
+      <c r="Y3">
         <v>0.1</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="Z3">
         <v>0.9</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="4">
         <v>120</v>
       </c>
       <c r="AB3">
         <v>100</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AC3">
         <v>15</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AE3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI3" s="2"/>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="6">
+        <v>44058</v>
+      </c>
+      <c r="C4" s="6">
+        <v>44336</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
         <v>40</v>
       </c>
-      <c r="AE3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH3" s="2"/>
-    </row>
-    <row r="4" spans="1:34">
-      <c r="A4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44058</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44336</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>43</v>
-      </c>
-      <c r="F4">
-        <v>90</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="4">
+        <v>95</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4">
         <v>116</v>
       </c>
       <c r="I4">
@@ -1526,60 +1514,66 @@
       <c r="P4">
         <v>1.4</v>
       </c>
-      <c r="U4" s="1">
-        <v>44326</v>
-      </c>
-      <c r="V4" s="1">
-        <v>44336</v>
-      </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="6">
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6">
+        <v>44686</v>
+      </c>
+      <c r="V4" s="6">
+        <v>44699</v>
+      </c>
+      <c r="W4">
+        <v>101.73</v>
+      </c>
+      <c r="X4">
+        <v>37.04</v>
+      </c>
+      <c r="Y4">
         <v>0.1</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="Z4">
         <v>0.9</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="4">
         <v>120</v>
       </c>
       <c r="AB4">
         <v>100</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AC4">
         <v>15</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AE4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI4" s="2"/>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="6">
+        <v>44058</v>
+      </c>
+      <c r="C5" s="6">
+        <v>44336</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <v>40</v>
       </c>
-      <c r="AE4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH4" s="2"/>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44058</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44336</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>43</v>
-      </c>
-      <c r="F5">
-        <v>90</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
+      <c r="F5" s="4">
+        <v>95</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4">
         <v>116</v>
       </c>
       <c r="I5">
@@ -1603,60 +1597,66 @@
       <c r="P5">
         <v>1.4</v>
       </c>
-      <c r="U5" s="1">
-        <v>44326</v>
-      </c>
-      <c r="V5" s="1">
-        <v>44336</v>
-      </c>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="6">
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6">
+        <v>44686</v>
+      </c>
+      <c r="V5" s="6">
+        <v>44699</v>
+      </c>
+      <c r="W5">
+        <v>101.73</v>
+      </c>
+      <c r="X5">
+        <v>37.04</v>
+      </c>
+      <c r="Y5">
         <v>0.1</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="Z5">
         <v>0.9</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="4">
         <v>120</v>
       </c>
       <c r="AB5">
         <v>100</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AC5">
         <v>15</v>
       </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AE5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI5" s="2"/>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="6">
+        <v>44058</v>
+      </c>
+      <c r="C6" s="6">
+        <v>44336</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
         <v>40</v>
       </c>
-      <c r="AE5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH5" s="2"/>
-    </row>
-    <row r="6" spans="1:34">
-      <c r="A6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44058</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44336</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>43</v>
-      </c>
-      <c r="F6">
-        <v>90</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
+      <c r="F6" s="4">
+        <v>95</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4">
         <v>116</v>
       </c>
       <c r="I6">
@@ -1680,60 +1680,66 @@
       <c r="P6">
         <v>1.4</v>
       </c>
-      <c r="U6" s="1">
-        <v>44326</v>
-      </c>
-      <c r="V6" s="1">
-        <v>44336</v>
-      </c>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="6">
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6">
+        <v>44686</v>
+      </c>
+      <c r="V6" s="6">
+        <v>44699</v>
+      </c>
+      <c r="W6">
+        <v>101.59</v>
+      </c>
+      <c r="X6">
+        <v>37.020000000000003</v>
+      </c>
+      <c r="Y6">
         <v>0.1</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="Z6">
         <v>0.9</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="4">
         <v>120</v>
       </c>
       <c r="AB6">
         <v>100</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AC6">
         <v>15</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AE6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI6" s="2"/>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AE6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH6" s="2"/>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="A7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>44058</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <v>44336</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>43</v>
-      </c>
-      <c r="F7">
-        <v>90</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
+      <c r="E7" s="4">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4">
+        <v>95</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4">
         <v>116</v>
       </c>
       <c r="I7">
@@ -1757,45 +1763,117 @@
       <c r="P7">
         <v>1.4</v>
       </c>
-      <c r="U7" s="1">
-        <v>44326</v>
-      </c>
-      <c r="V7" s="1">
-        <v>44336</v>
-      </c>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="7">
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="Y7">
         <v>0.1</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="Z7">
         <v>0.9</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="4">
         <v>120</v>
       </c>
       <c r="AB7">
         <v>100</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="AC7">
         <v>15</v>
       </c>
-      <c r="AD7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE7" s="6" t="s">
+      <c r="AE7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="10"/>
+      <c r="AF7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:34">
-      <c r="A8" s="5"/>
-      <c r="R8" s="3"/>
+    <row r="8" spans="1:35">
+      <c r="A8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="6">
+        <v>44044</v>
+      </c>
+      <c r="C8" s="6">
+        <v>44347</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>65</v>
+      </c>
+      <c r="F8" s="4">
+        <v>85</v>
+      </c>
+      <c r="G8" s="4">
+        <v>20</v>
+      </c>
+      <c r="H8" s="4">
+        <v>120</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>300</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0.9</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1.4</v>
+      </c>
+      <c r="Q8">
+        <v>88.975980000000007</v>
+      </c>
+      <c r="R8">
+        <v>62.286160000000002</v>
+      </c>
+      <c r="S8" s="6">
+        <v>44407</v>
+      </c>
+      <c r="T8" s="6">
+        <v>44445</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="Y8">
+        <v>0.1</v>
+      </c>
+      <c r="Z8">
+        <v>0.9</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>120</v>
+      </c>
+      <c r="AB8">
+        <v>100</v>
+      </c>
+      <c r="AC8">
+        <v>15</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="13" spans="1:34">
-      <c r="H13" s="4"/>
+    <row r="13" spans="1:35">
+      <c r="H13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>

--- a/data/gpr_settings.xlsx
+++ b/data/gpr_settings.xlsx
@@ -1,30 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_sak\Desktop\work with Barbara\data related\2022 spring\CAnMove\Siberian-rubythroat-China-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFC4A42-A1F3-4230-A9FE-53E5CFB53B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDC3BE5-5951-41D9-B990-162DEF5B3A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tracks" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -682,7 +673,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -690,6 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -736,7 +728,37 @@
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="m/d/yy"/>
     </dxf>
@@ -831,10 +853,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}" name="Table1" displayName="Table1" ref="A1:AI2" totalsRowShown="0">
   <autoFilter ref="A1:AI2" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}"/>
   <tableColumns count="35">
-    <tableColumn id="3" xr3:uid="{0E08F938-60A9-C640-A060-C64653A1D0F0}" name="gdl_id" dataDxfId="14" dataCellStyle="Normal_Feuil1"/>
+    <tableColumn id="3" xr3:uid="{0E08F938-60A9-C640-A060-C64653A1D0F0}" name="gdl_id" dataDxfId="17" dataCellStyle="Normal_Feuil1"/>
     <tableColumn id="38" xr3:uid="{5F80A124-B607-6D47-A8B2-B6EBC16D0EC2}" name="crop_start"/>
     <tableColumn id="39" xr3:uid="{C4B8ED7B-88BE-D143-A9A5-6213689753CA}" name="crop_end"/>
-    <tableColumn id="6" xr3:uid="{22680B6F-F907-FD43-BF6C-2E3789C9C356}" name="thr_dur" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{22680B6F-F907-FD43-BF6C-2E3789C9C356}" name="thr_dur" dataDxfId="16"/>
     <tableColumn id="43" xr3:uid="{0ACC25F8-5611-FA4F-B49C-6E30F1D95C08}" name="extent_N"/>
     <tableColumn id="44" xr3:uid="{7341665D-D68F-3E48-95CE-8E270ED9FA6A}" name="extent_W"/>
     <tableColumn id="45" xr3:uid="{18F1D038-2D60-FF49-8711-16897DCC1A1A}" name="extent_S"/>
@@ -845,22 +867,22 @@
     <tableColumn id="50" xr3:uid="{98646B4B-4B26-0A4C-A7C3-1140DBCABB7B}" name="prob_map_s"/>
     <tableColumn id="12" xr3:uid="{A646D821-0BC3-7144-9611-00F929630647}" name="prob_map_s_calib"/>
     <tableColumn id="51" xr3:uid="{AD7A8CAB-A777-7C4D-A6A2-601A4074FBB2}" name="prob_map_thr"/>
-    <tableColumn id="42" xr3:uid="{BF18370D-EF9D-424D-B4AE-3A176A692D5A}" name="shift_k" dataDxfId="12"/>
+    <tableColumn id="42" xr3:uid="{BF18370D-EF9D-424D-B4AE-3A176A692D5A}" name="shift_k" dataDxfId="15"/>
     <tableColumn id="11" xr3:uid="{85327B51-BF51-A643-9746-0720CC021C70}" name="kernel_adjust"/>
     <tableColumn id="9" xr3:uid="{0D248294-1CA3-E44D-A900-569DE950BA49}" name="calib_lon"/>
     <tableColumn id="10" xr3:uid="{50C46AB1-CB9A-B84C-B41F-D6DF90BD8412}" name="calib_lat"/>
-    <tableColumn id="19" xr3:uid="{F555DC9A-9393-234D-92AB-138553DAA03D}" name="calib_1_start" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{F0057B32-84F6-0D4E-B0D3-B8591BCF0A33}" name="calib_1_end" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{72C1CC5C-0A2A-3140-9A33-1BAC20CBDE1B}" name="calib_2_start" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{1E9B142A-92EB-D647-BB56-ADFB8F3B1DE9}" name="calib_2_end" dataDxfId="8"/>
-    <tableColumn id="40" xr3:uid="{ABB1AA27-3007-954E-BFD9-D15B5759E520}" name="calib_2_lon" dataDxfId="7"/>
-    <tableColumn id="41" xr3:uid="{5A6DF468-93CA-8E49-B529-24F965EC5A68}" name="calib_2_lat" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{C1C8E7B8-04FB-6241-9466-61A298BC202A}" name="prob_light_w" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{CA9C149A-C070-ED44-9095-795932D8BA41}" name="thr_prob_percentile" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{74B13C9B-EDD7-A24E-A7E5-146255BCE559}" name="thr_gs" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{07BAD23C-A227-CE4D-A5DA-81F573B31782}" name="thr_as" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{4C9C4E26-983D-354E-9081-3E245F2F2396}" name="low_speed_fix" dataDxfId="1"/>
-    <tableColumn id="32" xr3:uid="{8FB298A1-7B27-ED49-9E23-106210114304}" name="ringNo" dataDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{F555DC9A-9393-234D-92AB-138553DAA03D}" name="calib_1_start" dataDxfId="14"/>
+    <tableColumn id="20" xr3:uid="{F0057B32-84F6-0D4E-B0D3-B8591BCF0A33}" name="calib_1_end" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{72C1CC5C-0A2A-3140-9A33-1BAC20CBDE1B}" name="calib_2_start" dataDxfId="12"/>
+    <tableColumn id="22" xr3:uid="{1E9B142A-92EB-D647-BB56-ADFB8F3B1DE9}" name="calib_2_end" dataDxfId="11"/>
+    <tableColumn id="40" xr3:uid="{ABB1AA27-3007-954E-BFD9-D15B5759E520}" name="calib_2_lon" dataDxfId="10"/>
+    <tableColumn id="41" xr3:uid="{5A6DF468-93CA-8E49-B529-24F965EC5A68}" name="calib_2_lat" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C1C8E7B8-04FB-6241-9466-61A298BC202A}" name="prob_light_w" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{CA9C149A-C070-ED44-9095-795932D8BA41}" name="thr_prob_percentile" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{74B13C9B-EDD7-A24E-A7E5-146255BCE559}" name="thr_gs" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{07BAD23C-A227-CE4D-A5DA-81F573B31782}" name="thr_as" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{4C9C4E26-983D-354E-9081-3E245F2F2396}" name="low_speed_fix" dataDxfId="4"/>
+    <tableColumn id="32" xr3:uid="{8FB298A1-7B27-ED49-9E23-106210114304}" name="ringNo" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{437D6807-140D-EC48-A588-9CA0C70671A6}" name="scientific_name"/>
     <tableColumn id="5" xr3:uid="{E0EF373A-0600-B64D-81CD-63E6714931D7}" name="common_name"/>
     <tableColumn id="34" xr3:uid="{AAB4E28F-C2D5-A44D-A5CF-C6EA295E6EC5}" name="mass"/>
@@ -1160,7 +1182,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1170,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1357,10 +1379,10 @@
         <v>44698</v>
       </c>
       <c r="W2">
-        <v>101.73</v>
+        <v>101.72253297641799</v>
       </c>
       <c r="X2">
-        <v>37.04</v>
+        <v>37.045257976278599</v>
       </c>
       <c r="Y2">
         <v>0.1</v>
@@ -1369,7 +1391,7 @@
         <v>0.9</v>
       </c>
       <c r="AA2">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AB2">
         <v>100</v>
@@ -1440,10 +1462,10 @@
         <v>44699</v>
       </c>
       <c r="W3">
-        <v>101.73</v>
+        <v>101.751120965927</v>
       </c>
       <c r="X3">
-        <v>37.04</v>
+        <v>37.001828989014001</v>
       </c>
       <c r="Y3">
         <v>0.1</v>
@@ -1451,8 +1473,8 @@
       <c r="Z3">
         <v>0.9</v>
       </c>
-      <c r="AA3" s="4">
-        <v>120</v>
+      <c r="AA3" s="7">
+        <v>70</v>
       </c>
       <c r="AB3">
         <v>100</v>
@@ -1523,10 +1545,10 @@
         <v>44699</v>
       </c>
       <c r="W4">
-        <v>101.73</v>
+        <v>101.725551970303</v>
       </c>
       <c r="X4">
-        <v>37.04</v>
+        <v>37.044268995523403</v>
       </c>
       <c r="Y4">
         <v>0.1</v>
@@ -1534,8 +1556,8 @@
       <c r="Z4">
         <v>0.9</v>
       </c>
-      <c r="AA4" s="4">
-        <v>120</v>
+      <c r="AA4" s="7">
+        <v>70</v>
       </c>
       <c r="AB4">
         <v>100</v>
@@ -1606,10 +1628,10 @@
         <v>44699</v>
       </c>
       <c r="W5">
-        <v>101.73</v>
+        <v>101.724187983199</v>
       </c>
       <c r="X5">
-        <v>37.04</v>
+        <v>37.044289028271997</v>
       </c>
       <c r="Y5">
         <v>0.1</v>
@@ -1617,8 +1639,8 @@
       <c r="Z5">
         <v>0.9</v>
       </c>
-      <c r="AA5" s="4">
-        <v>120</v>
+      <c r="AA5" s="7">
+        <v>70</v>
       </c>
       <c r="AB5">
         <v>100</v>
@@ -1689,10 +1711,10 @@
         <v>44699</v>
       </c>
       <c r="W6">
-        <v>101.59</v>
+        <v>101.585549041628</v>
       </c>
       <c r="X6">
-        <v>37.020000000000003</v>
+        <v>37.019874975085202</v>
       </c>
       <c r="Y6">
         <v>0.1</v>
@@ -1700,8 +1722,8 @@
       <c r="Z6">
         <v>0.9</v>
       </c>
-      <c r="AA6" s="4">
-        <v>120</v>
+      <c r="AA6" s="7">
+        <v>70</v>
       </c>
       <c r="AB6">
         <v>100</v>
@@ -1773,8 +1795,8 @@
       <c r="Z7">
         <v>0.9</v>
       </c>
-      <c r="AA7" s="4">
-        <v>120</v>
+      <c r="AA7" s="7">
+        <v>70</v>
       </c>
       <c r="AB7">
         <v>100</v>
@@ -1856,8 +1878,8 @@
       <c r="Z8">
         <v>0.9</v>
       </c>
-      <c r="AA8" s="4">
-        <v>120</v>
+      <c r="AA8" s="7">
+        <v>70</v>
       </c>
       <c r="AB8">
         <v>100</v>

--- a/data/gpr_settings.xlsx
+++ b/data/gpr_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_sak\Desktop\work with Barbara\data related\2022 spring\CAnMove\Siberian-rubythroat-China-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_sak\Desktop\work with Barbara\analysis related\Siberian rubythroat\CAnMove logger\Siberian-rubythroat-China-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDC3BE5-5951-41D9-B990-162DEF5B3A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474A43AB-2B0D-4266-8D24-93FBFFD6EE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tracks" sheetId="1" r:id="rId1"/>
@@ -728,37 +728,7 @@
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <numFmt numFmtId="164" formatCode="m/d/yy"/>
     </dxf>
@@ -853,10 +823,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}" name="Table1" displayName="Table1" ref="A1:AI2" totalsRowShown="0">
   <autoFilter ref="A1:AI2" xr:uid="{3E83695E-4F69-0542-A434-9A92AEDC21B8}"/>
   <tableColumns count="35">
-    <tableColumn id="3" xr3:uid="{0E08F938-60A9-C640-A060-C64653A1D0F0}" name="gdl_id" dataDxfId="17" dataCellStyle="Normal_Feuil1"/>
+    <tableColumn id="3" xr3:uid="{0E08F938-60A9-C640-A060-C64653A1D0F0}" name="gdl_id" dataDxfId="14" dataCellStyle="Normal_Feuil1"/>
     <tableColumn id="38" xr3:uid="{5F80A124-B607-6D47-A8B2-B6EBC16D0EC2}" name="crop_start"/>
     <tableColumn id="39" xr3:uid="{C4B8ED7B-88BE-D143-A9A5-6213689753CA}" name="crop_end"/>
-    <tableColumn id="6" xr3:uid="{22680B6F-F907-FD43-BF6C-2E3789C9C356}" name="thr_dur" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{22680B6F-F907-FD43-BF6C-2E3789C9C356}" name="thr_dur" dataDxfId="13"/>
     <tableColumn id="43" xr3:uid="{0ACC25F8-5611-FA4F-B49C-6E30F1D95C08}" name="extent_N"/>
     <tableColumn id="44" xr3:uid="{7341665D-D68F-3E48-95CE-8E270ED9FA6A}" name="extent_W"/>
     <tableColumn id="45" xr3:uid="{18F1D038-2D60-FF49-8711-16897DCC1A1A}" name="extent_S"/>
@@ -867,22 +837,22 @@
     <tableColumn id="50" xr3:uid="{98646B4B-4B26-0A4C-A7C3-1140DBCABB7B}" name="prob_map_s"/>
     <tableColumn id="12" xr3:uid="{A646D821-0BC3-7144-9611-00F929630647}" name="prob_map_s_calib"/>
     <tableColumn id="51" xr3:uid="{AD7A8CAB-A777-7C4D-A6A2-601A4074FBB2}" name="prob_map_thr"/>
-    <tableColumn id="42" xr3:uid="{BF18370D-EF9D-424D-B4AE-3A176A692D5A}" name="shift_k" dataDxfId="15"/>
+    <tableColumn id="42" xr3:uid="{BF18370D-EF9D-424D-B4AE-3A176A692D5A}" name="shift_k" dataDxfId="12"/>
     <tableColumn id="11" xr3:uid="{85327B51-BF51-A643-9746-0720CC021C70}" name="kernel_adjust"/>
     <tableColumn id="9" xr3:uid="{0D248294-1CA3-E44D-A900-569DE950BA49}" name="calib_lon"/>
     <tableColumn id="10" xr3:uid="{50C46AB1-CB9A-B84C-B41F-D6DF90BD8412}" name="calib_lat"/>
-    <tableColumn id="19" xr3:uid="{F555DC9A-9393-234D-92AB-138553DAA03D}" name="calib_1_start" dataDxfId="14"/>
-    <tableColumn id="20" xr3:uid="{F0057B32-84F6-0D4E-B0D3-B8591BCF0A33}" name="calib_1_end" dataDxfId="13"/>
-    <tableColumn id="21" xr3:uid="{72C1CC5C-0A2A-3140-9A33-1BAC20CBDE1B}" name="calib_2_start" dataDxfId="12"/>
-    <tableColumn id="22" xr3:uid="{1E9B142A-92EB-D647-BB56-ADFB8F3B1DE9}" name="calib_2_end" dataDxfId="11"/>
-    <tableColumn id="40" xr3:uid="{ABB1AA27-3007-954E-BFD9-D15B5759E520}" name="calib_2_lon" dataDxfId="10"/>
-    <tableColumn id="41" xr3:uid="{5A6DF468-93CA-8E49-B529-24F965EC5A68}" name="calib_2_lat" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{C1C8E7B8-04FB-6241-9466-61A298BC202A}" name="prob_light_w" dataDxfId="8"/>
-    <tableColumn id="1" xr3:uid="{CA9C149A-C070-ED44-9095-795932D8BA41}" name="thr_prob_percentile" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{74B13C9B-EDD7-A24E-A7E5-146255BCE559}" name="thr_gs" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{07BAD23C-A227-CE4D-A5DA-81F573B31782}" name="thr_as" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{4C9C4E26-983D-354E-9081-3E245F2F2396}" name="low_speed_fix" dataDxfId="4"/>
-    <tableColumn id="32" xr3:uid="{8FB298A1-7B27-ED49-9E23-106210114304}" name="ringNo" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{F555DC9A-9393-234D-92AB-138553DAA03D}" name="calib_1_start" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{F0057B32-84F6-0D4E-B0D3-B8591BCF0A33}" name="calib_1_end" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{72C1CC5C-0A2A-3140-9A33-1BAC20CBDE1B}" name="calib_2_start" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{1E9B142A-92EB-D647-BB56-ADFB8F3B1DE9}" name="calib_2_end" dataDxfId="8"/>
+    <tableColumn id="40" xr3:uid="{ABB1AA27-3007-954E-BFD9-D15B5759E520}" name="calib_2_lon" dataDxfId="7"/>
+    <tableColumn id="41" xr3:uid="{5A6DF468-93CA-8E49-B529-24F965EC5A68}" name="calib_2_lat" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C1C8E7B8-04FB-6241-9466-61A298BC202A}" name="prob_light_w" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{CA9C149A-C070-ED44-9095-795932D8BA41}" name="thr_prob_percentile" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{74B13C9B-EDD7-A24E-A7E5-146255BCE559}" name="thr_gs" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{07BAD23C-A227-CE4D-A5DA-81F573B31782}" name="thr_as" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{4C9C4E26-983D-354E-9081-3E245F2F2396}" name="low_speed_fix" dataDxfId="1"/>
+    <tableColumn id="32" xr3:uid="{8FB298A1-7B27-ED49-9E23-106210114304}" name="ringNo" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{437D6807-140D-EC48-A588-9CA0C70671A6}" name="scientific_name"/>
     <tableColumn id="5" xr3:uid="{E0EF373A-0600-B64D-81CD-63E6714931D7}" name="common_name"/>
     <tableColumn id="34" xr3:uid="{AAB4E28F-C2D5-A44D-A5CF-C6EA295E6EC5}" name="mass"/>
@@ -1182,7 +1152,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1192,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1391,10 +1361,10 @@
         <v>0.9</v>
       </c>
       <c r="AA2">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AB2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AC2">
         <v>15</v>
@@ -1474,10 +1444,10 @@
         <v>0.9</v>
       </c>
       <c r="AA3" s="7">
-        <v>70</v>
-      </c>
-      <c r="AB3">
-        <v>100</v>
+        <v>120</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>80</v>
       </c>
       <c r="AC3">
         <v>15</v>
@@ -1557,10 +1527,10 @@
         <v>0.9</v>
       </c>
       <c r="AA4" s="7">
-        <v>70</v>
-      </c>
-      <c r="AB4">
-        <v>100</v>
+        <v>120</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>80</v>
       </c>
       <c r="AC4">
         <v>15</v>
@@ -1640,10 +1610,10 @@
         <v>0.9</v>
       </c>
       <c r="AA5" s="7">
-        <v>70</v>
-      </c>
-      <c r="AB5">
-        <v>100</v>
+        <v>120</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>80</v>
       </c>
       <c r="AC5">
         <v>15</v>
@@ -1723,10 +1693,10 @@
         <v>0.9</v>
       </c>
       <c r="AA6" s="7">
-        <v>70</v>
-      </c>
-      <c r="AB6">
-        <v>100</v>
+        <v>120</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>80</v>
       </c>
       <c r="AC6">
         <v>15</v>
@@ -1796,10 +1766,10 @@
         <v>0.9</v>
       </c>
       <c r="AA7" s="7">
-        <v>70</v>
-      </c>
-      <c r="AB7">
-        <v>100</v>
+        <v>120</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>80</v>
       </c>
       <c r="AC7">
         <v>15</v>
@@ -1879,10 +1849,10 @@
         <v>0.9</v>
       </c>
       <c r="AA8" s="7">
-        <v>70</v>
-      </c>
-      <c r="AB8">
-        <v>100</v>
+        <v>120</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>80</v>
       </c>
       <c r="AC8">
         <v>15</v>
